--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -216,15 +216,6 @@
     <t>Mudanças de métodos das telas de agendamento para classse funcionário</t>
   </si>
   <si>
-    <t>Implementar métodos de consultas</t>
-  </si>
-  <si>
-    <t>Implementar parte gráfica da tela consulta</t>
-  </si>
-  <si>
-    <t>Exibir consultas do data atual na tela</t>
-  </si>
-  <si>
     <t>Não feito</t>
   </si>
   <si>
@@ -242,6 +233,21 @@
   <si>
     <t>Integração com agendamento</t>
   </si>
+  <si>
+    <t>Criação do banco, tabelas e atributos do banco</t>
+  </si>
+  <si>
+    <t>Implementar parte gráfica da tela consulta de agendamentos</t>
+  </si>
+  <si>
+    <t>Implementar métodos de consultas de agendamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exibir consultas do data atual na tela </t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -358,6 +364,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -669,23 +682,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,8 +709,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,16 +730,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,14 +775,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,28 +2762,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2882,31 +2895,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,11 +2947,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="187593920"/>
-        <c:axId val="188399856"/>
+        <c:axId val="190202040"/>
+        <c:axId val="190237144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187593920"/>
+        <c:axId val="190202040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3032,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188399856"/>
+        <c:crossAx val="190237144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3027,7 +3040,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188399856"/>
+        <c:axId val="190237144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3110,7 +3122,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187593920"/>
+        <c:crossAx val="190202040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3123,7 +3135,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3260,28 +3271,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3393,31 +3404,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,11 +3456,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="187694384"/>
-        <c:axId val="187776104"/>
+        <c:axId val="190351024"/>
+        <c:axId val="191291880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187694384"/>
+        <c:axId val="190351024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3523,7 +3533,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187776104"/>
+        <c:crossAx val="191291880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3531,7 +3541,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187776104"/>
+        <c:axId val="191291880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3592,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3614,7 +3623,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187694384"/>
+        <c:crossAx val="190351024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3627,7 +3636,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3949,11 +3957,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="187659352"/>
-        <c:axId val="188536632"/>
+        <c:axId val="191667480"/>
+        <c:axId val="191623432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187659352"/>
+        <c:axId val="191667480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,7 +4003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4027,7 +4034,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188536632"/>
+        <c:crossAx val="191623432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4035,7 +4042,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188536632"/>
+        <c:axId val="191623432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4093,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4118,7 +4124,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187659352"/>
+        <c:crossAx val="191667480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4131,7 +4137,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4453,11 +4458,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="188543496"/>
-        <c:axId val="188544904"/>
+        <c:axId val="190929976"/>
+        <c:axId val="191635000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188543496"/>
+        <c:axId val="190929976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4504,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4531,7 +4535,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188544904"/>
+        <c:crossAx val="191635000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4539,7 +4543,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188544904"/>
+        <c:axId val="191635000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4594,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4622,7 +4625,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188543496"/>
+        <c:crossAx val="190929976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4635,7 +4638,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5102,10 +5104,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5122,16 +5124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5156,27 +5158,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="35">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5200,9 +5202,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5215,8 +5217,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5238,25 +5240,29 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
       <c r="E4" s="39">
         <f>SUM(D4:D6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="39">
         <f>SUM(F4:F6)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>62</v>
+      <c r="H4" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="32"/>
@@ -5280,17 +5286,21 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
       <c r="E5" s="40"/>
       <c r="F5" s="25"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="64" t="s">
-        <v>62</v>
+      <c r="H5" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="3"/>
@@ -5314,17 +5324,21 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.5</v>
+      </c>
       <c r="E6" s="41"/>
       <c r="F6" s="27"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="64" t="s">
-        <v>62</v>
+      <c r="H6" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="3"/>
@@ -5348,11 +5362,11 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="28"/>
@@ -5365,8 +5379,8 @@
         <f>SUM(F7:F11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>62</v>
+      <c r="H7" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5388,17 +5402,17 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="20"/>
       <c r="E8" s="40"/>
       <c r="F8" s="20"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="64" t="s">
-        <v>62</v>
+      <c r="H8" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5420,17 +5434,17 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="40"/>
       <c r="F9" s="20"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="64" t="s">
-        <v>62</v>
+      <c r="H9" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
@@ -5453,17 +5467,17 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="40"/>
       <c r="F10" s="20"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="64" t="s">
-        <v>62</v>
+      <c r="H10" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
@@ -5486,17 +5500,17 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="41"/>
       <c r="F11" s="20"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="64" t="s">
-        <v>62</v>
+      <c r="H11" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
@@ -5519,25 +5533,29 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
       <c r="E12" s="39">
         <f>SUM(D12:D13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="39">
         <f>SUM(F12:F13)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="64" t="s">
-        <v>62</v>
+      <c r="H12" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
@@ -5560,17 +5578,21 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3</v>
+      </c>
       <c r="E13" s="41"/>
       <c r="F13" s="20"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="64" t="s">
-        <v>62</v>
+      <c r="H13" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5593,25 +5615,25 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
+      <c r="B14" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="39">
-        <f>SUM(D14:D18)</f>
+        <f>SUM(D14:D19)</f>
         <v>0</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="39">
-        <f>SUM(F14:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>62</v>
+        <f>SUM(F14:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="6"/>
       <c r="K14" s="4"/>
@@ -5634,17 +5656,17 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="40"/>
       <c r="F15" s="20"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="64" t="s">
-        <v>62</v>
+      <c r="H15" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I15" s="6"/>
       <c r="K15" s="4"/>
@@ -5667,17 +5689,17 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="40"/>
       <c r="F16" s="20"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="64" t="s">
-        <v>62</v>
+      <c r="H16" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I16" s="6"/>
       <c r="K16" s="4"/>
@@ -5700,17 +5722,17 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="40"/>
       <c r="F17" s="20"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="64" t="s">
-        <v>62</v>
+      <c r="H17" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="6"/>
       <c r="K17" s="4"/>
@@ -5733,17 +5755,17 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="64" t="s">
-        <v>62</v>
+      <c r="G18" s="40"/>
+      <c r="H18" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I18" s="6"/>
       <c r="K18" s="4"/>
@@ -5766,25 +5788,17 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>60</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="39">
-        <f>SUM(D19:D21)</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="41"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="39">
-        <f>SUM(F19:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>62</v>
+      <c r="G19" s="41"/>
+      <c r="H19" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="6"/>
       <c r="K19" s="4"/>
@@ -5807,17 +5821,25 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="22" t="s">
-        <v>59</v>
+      <c r="A20" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39">
+        <f>SUM(D20:D22)</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="64" t="s">
-        <v>62</v>
+      <c r="G20" s="39">
+        <f>SUM(F20:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I20" s="6"/>
       <c r="K20" s="4"/>
@@ -5840,17 +5862,17 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="64" t="s">
-        <v>62</v>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="I21" s="6"/>
       <c r="K21" s="4"/>
@@ -5873,15 +5895,19 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -5892,6 +5918,14 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
@@ -5899,7 +5933,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5956,7 +5990,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5977,7 +6011,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5999,6 +6033,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6059,8 +6094,6 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -6124,24 +6157,46 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
+    <row r="34" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -6193,20 +6248,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6265,19 +6320,19 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -6295,10 +6350,10 @@
       <c r="J3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="48" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6310,18 +6365,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6336,35 +6391,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>5.6875</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.875</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0625</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4375</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6372,11 +6427,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>22.75</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>2.84375</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6392,47 +6447,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6470,18 +6525,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6496,7 +6551,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6552,7 +6607,7 @@
       </c>
       <c r="B10" s="18">
         <f>Diogo!B9</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="C10" s="13">
         <f>Diogo!C9</f>
@@ -7222,20 +7277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7294,19 +7349,19 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -7324,10 +7379,10 @@
       <c r="J3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="48" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7339,18 +7394,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7365,35 +7420,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>5.6875</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.875</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0625</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4375</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -7401,11 +7456,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>22.75</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>2.84375</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -7421,47 +7476,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7499,18 +7554,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7525,7 +7580,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
@@ -7576,10 +7631,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7613,18 +7668,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7658,18 +7713,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7703,18 +7758,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -7749,8 +7804,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7833,20 +7888,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7905,19 +7960,19 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -7935,10 +7990,10 @@
       <c r="J3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="48" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7950,18 +8005,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8110,18 +8165,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8187,10 +8242,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8232,10 +8287,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8277,10 +8332,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8322,10 +8377,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -8360,10 +8415,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13">
         <v>0</v>
       </c>
@@ -8408,6 +8463,7 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8422,7 +8478,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L10">
     <cfRule type="expression" dxfId="24" priority="17">
@@ -8522,20 +8577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8594,19 +8649,19 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="49" t="s">
@@ -8624,10 +8679,10 @@
       <c r="J3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="48" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8639,18 +8694,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8799,18 +8854,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8876,10 +8931,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8921,10 +8976,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8966,10 +9021,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -9011,10 +9066,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>

--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Métodos de alteração de prontuário</t>
   </si>
   <si>
-    <t>Métodos de remoção de prontuário</t>
-  </si>
-  <si>
     <t>Integração com agendamento</t>
   </si>
   <si>
@@ -248,6 +245,21 @@
   <si>
     <t>Feito</t>
   </si>
+  <si>
+    <t>Atualização da documentação</t>
+  </si>
+  <si>
+    <t>Atualizar requisitos</t>
+  </si>
+  <si>
+    <t>Atualizar diagrama de caso de uso</t>
+  </si>
+  <si>
+    <t>Atualizar diagrama de classe</t>
+  </si>
+  <si>
+    <t>Métodos de salvar prontuário</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +269,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,13 +372,6 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -590,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,9 +675,6 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,7 +690,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +709,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,9 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2762,28 +2764,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.875</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4375</c:v>
+                  <c:v>2.8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.625</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2895,31 +2897,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,11 +2949,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="190202040"/>
-        <c:axId val="190237144"/>
+        <c:axId val="171777896"/>
+        <c:axId val="171784424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190202040"/>
+        <c:axId val="171777896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3034,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190237144"/>
+        <c:crossAx val="171784424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3040,7 +3042,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190237144"/>
+        <c:axId val="171784424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3124,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190202040"/>
+        <c:crossAx val="171777896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3271,28 +3273,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.875</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4375</c:v>
+                  <c:v>2.8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.625</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3404,31 +3406,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,11 +3458,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="190351024"/>
-        <c:axId val="191291880"/>
+        <c:axId val="171922168"/>
+        <c:axId val="171930960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190351024"/>
+        <c:axId val="171922168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3535,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191291880"/>
+        <c:crossAx val="171930960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3541,7 +3543,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191291880"/>
+        <c:axId val="171930960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +3625,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190351024"/>
+        <c:crossAx val="171922168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3957,11 +3959,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="191667480"/>
-        <c:axId val="191623432"/>
+        <c:axId val="173206464"/>
+        <c:axId val="173210944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191667480"/>
+        <c:axId val="173206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +4036,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191623432"/>
+        <c:crossAx val="173210944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4042,7 +4044,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191623432"/>
+        <c:axId val="173210944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,7 +4126,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191667480"/>
+        <c:crossAx val="173206464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4458,11 +4460,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="190929976"/>
-        <c:axId val="191635000"/>
+        <c:axId val="172500448"/>
+        <c:axId val="171859856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190929976"/>
+        <c:axId val="172500448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4537,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191635000"/>
+        <c:crossAx val="171859856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4543,7 +4545,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191635000"/>
+        <c:axId val="171859856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4627,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190929976"/>
+        <c:crossAx val="172500448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5107,7 +5109,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5124,16 +5126,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5158,27 +5160,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="41">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5202,9 +5204,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5217,8 +5219,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5252,20 +5254,20 @@
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <f>SUM(D4:D6)</f>
         <v>2.5</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f>SUM(F4:F6)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5296,13 +5298,13 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="31"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="30"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -5334,13 +5336,13 @@
       <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="31"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="30"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -5362,24 +5364,28 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="39">
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
         <f>SUM(D7:D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f>SUM(F7:F11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="4"/>
@@ -5402,16 +5408,16 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="39"/>
+      <c r="H8" s="33" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="4"/>
@@ -5434,16 +5440,16 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="6"/>
@@ -5467,16 +5473,16 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="24" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="6"/>
@@ -5500,16 +5506,16 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="6"/>
@@ -5533,7 +5539,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -5545,17 +5551,17 @@
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <f>SUM(D12:D13)</f>
         <v>4</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <f>SUM(F12:F13)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>69</v>
+      <c r="H12" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
@@ -5578,7 +5584,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="24" t="s">
         <v>55</v>
       </c>
@@ -5588,11 +5594,11 @@
       <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="34" t="s">
-        <v>69</v>
+      <c r="G13" s="40"/>
+      <c r="H13" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5615,24 +5621,24 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <f>SUM(D14:D19)</f>
         <v>0</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f>SUM(F14:F19)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="6"/>
@@ -5656,16 +5662,16 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="6"/>
@@ -5689,16 +5695,16 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="6"/>
@@ -5722,16 +5728,16 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="6"/>
@@ -5755,16 +5761,16 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="6"/>
@@ -5788,16 +5794,16 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="34" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="6"/>
@@ -5821,24 +5827,24 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>66</v>
+      <c r="B20" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <f>SUM(D20:D22)</f>
         <v>0</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f>SUM(F20:F22)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="6"/>
@@ -5862,16 +5868,16 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="6"/>
@@ -5895,16 +5901,16 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="6"/>
@@ -5928,13 +5934,26 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="38">
+        <f>SUM(D23:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="38">
+        <f>SUM(F23:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -5949,13 +5968,18 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -5970,13 +5994,18 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -6180,10 +6209,7 @@
       <c r="T34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E20:E22"/>
+  <mergeCells count="26">
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6191,12 +6217,12 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G23:G25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -6204,6 +6230,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -6391,35 +6423,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>5.6875</v>
+        <v>6.5625</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
+        <v>4.6875</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>2.4375</v>
+        <v>2.8125</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>1.625</v>
+        <v>1.875</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6427,11 +6459,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>22.75</v>
+        <v>26.25</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>2.84375</v>
+        <v>3.28125</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6447,47 +6479,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6551,7 +6583,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6607,7 +6639,7 @@
       </c>
       <c r="B10" s="18">
         <f>Diogo!B9</f>
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="C10" s="13">
         <f>Diogo!C9</f>
@@ -7420,35 +7452,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>5.6875</v>
+        <v>6.5625</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
+        <v>4.6875</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>2.4375</v>
+        <v>2.8125</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>1.625</v>
+        <v>1.875</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -7456,11 +7488,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>22.75</v>
+        <v>26.25</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>2.84375</v>
+        <v>3.28125</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -7476,47 +7508,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7580,7 +7612,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>

--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -124,21 +124,6 @@
     <t>DIOGO DATA</t>
   </si>
   <si>
-    <t>Módulo Calendário</t>
-  </si>
-  <si>
-    <t>Atualização de documentação</t>
-  </si>
-  <si>
-    <t>Inclusão de funcionalidades</t>
-  </si>
-  <si>
-    <t>Módulo agendamento</t>
-  </si>
-  <si>
-    <t>InternalFrame</t>
-  </si>
-  <si>
     <t>Terça
 25/10/2016</t>
   </si>
@@ -187,18 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Estudo da biblioteca </t>
-  </si>
-  <si>
-    <t>Métodos de inserção</t>
-  </si>
-  <si>
-    <t>Métodos de remoção</t>
-  </si>
-  <si>
-    <t>Métodos de busca</t>
-  </si>
-  <si>
-    <t>Métodos de alteração</t>
   </si>
   <si>
     <t>Implementação gráfica</t>
@@ -260,6 +233,36 @@
   <si>
     <t>Métodos de salvar prontuário</t>
   </si>
+  <si>
+    <t>Diagrama Entidade Relacionamento</t>
+  </si>
+  <si>
+    <t>Conexão do banco com o eclipse</t>
+  </si>
+  <si>
+    <t>Métodos de inserção de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de inserção de funcionarios</t>
+  </si>
+  <si>
+    <t>Métodos de remoção de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de remoção de funcionarios</t>
+  </si>
+  <si>
+    <t>Métodos de busca de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de busca de funcionários</t>
+  </si>
+  <si>
+    <t>Implementação gráfica da tela de login</t>
+  </si>
+  <si>
+    <t>Implementação de métodos da tela de login</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +272,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -373,13 +376,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -443,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,17 +564,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -595,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,10 +663,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,7 +675,20 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,22 +703,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,21 +733,6 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,10 +745,19 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2764,28 +2744,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2897,31 +2877,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,11 +2929,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="171777896"/>
-        <c:axId val="171784424"/>
+        <c:axId val="210063320"/>
+        <c:axId val="209966328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171777896"/>
+        <c:axId val="210063320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3014,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171784424"/>
+        <c:crossAx val="209966328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3042,7 +3022,510 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171784424"/>
+        <c:axId val="209966328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210063320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="209499928"/>
+        <c:axId val="213664488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="209499928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213664488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213664488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3124,7 +3607,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171777896"/>
+        <c:crossAx val="209499928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3163,7 +3646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3181,7 +3664,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
+              <c:f>Izaquiel!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3225,7 +3708,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3261,40 +3744,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3305,7 +3788,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3314,7 +3797,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
+              <c:f>Izaquiel!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3358,7 +3841,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3394,43 +3877,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,7 +3921,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3458,11 +3941,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="171922168"/>
-        <c:axId val="171930960"/>
+        <c:axId val="155837096"/>
+        <c:axId val="155837488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171922168"/>
+        <c:axId val="155837096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +4018,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171930960"/>
+        <c:crossAx val="155837488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3543,7 +4026,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171930960"/>
+        <c:axId val="155837488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +4108,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171922168"/>
+        <c:crossAx val="155837096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3664,7 +4147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3682,7 +4165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
+              <c:f>Ivo!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3726,7 +4209,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Ivo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3762,40 +4245,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:f>Ivo!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3806,7 +4289,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3815,7 +4298,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
+              <c:f>Ivo!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3859,7 +4342,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Ivo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3895,43 +4378,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:f>Ivo!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,7 +4422,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3959,11 +4442,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="173206464"/>
-        <c:axId val="173210944"/>
+        <c:axId val="155838272"/>
+        <c:axId val="155838664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173206464"/>
+        <c:axId val="155838272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173210944"/>
+        <c:crossAx val="155838664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4044,7 +4527,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173210944"/>
+        <c:axId val="155838664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,508 +4609,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173206464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="172500448"/>
-        <c:axId val="171859856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="172500448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="171859856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="171859856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172500448"/>
+        <c:crossAx val="155838272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4707,14 +4689,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4230</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4741,14 +4723,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4776,15 +4758,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5106,10 +5088,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5126,16 +5108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5160,27 +5142,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="36">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5204,9 +5186,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5219,8 +5201,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5242,29 +5224,31 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>37</v>
+      <c r="A4" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="43">
         <f>SUM(D4:D6)</f>
         <v>2.5</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="38">
+      <c r="F4" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="43">
         <f>SUM(F4:F6)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="31"/>
@@ -5288,21 +5272,23 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45"/>
       <c r="H5" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="3"/>
@@ -5326,21 +5312,23 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="3"/>
@@ -5364,29 +5352,25 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>38</v>
+      <c r="A7" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="43">
         <f>SUM(D7:D11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="38">
+      <c r="G7" s="43">
         <f>SUM(F7:F11)</f>
         <v>0</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5408,17 +5392,17 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="39"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5440,17 +5424,17 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="39"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
@@ -5473,17 +5457,17 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="24" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
@@ -5506,17 +5490,17 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
@@ -5539,29 +5523,31 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>39</v>
+      <c r="A12" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="43">
         <f>SUM(D12:D13)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="38">
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43">
         <f>SUM(F12:F13)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
@@ -5584,21 +5570,23 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="40"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
       <c r="H13" s="33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5621,22 +5609,28 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="38">
-        <f>SUM(D14:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="38">
-        <f>SUM(F14:F19)</f>
-        <v>0</v>
+      <c r="A14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="43">
+        <f>SUM(D14:D23)</f>
+        <v>17.5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="43">
+        <f>SUM(F14:F23)</f>
+        <v>16.75</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>59</v>
@@ -5662,15 +5656,21 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="39"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="45"/>
       <c r="H15" s="33" t="s">
         <v>59</v>
       </c>
@@ -5695,15 +5695,21 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="45"/>
       <c r="H16" s="33" t="s">
         <v>59</v>
       </c>
@@ -5728,15 +5734,21 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="45"/>
       <c r="H17" s="33" t="s">
         <v>59</v>
       </c>
@@ -5761,15 +5773,21 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="45"/>
       <c r="H18" s="33" t="s">
         <v>59</v>
       </c>
@@ -5794,15 +5812,21 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="45"/>
       <c r="H19" s="33" t="s">
         <v>59</v>
       </c>
@@ -5827,23 +5851,21 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="38">
-        <f>SUM(D20:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="38">
-        <f>SUM(F20:F22)</f>
-        <v>0</v>
-      </c>
+      <c r="A20" s="41"/>
+      <c r="B20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G20" s="45"/>
       <c r="H20" s="33" t="s">
         <v>59</v>
       </c>
@@ -5868,15 +5890,21 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G21" s="45"/>
       <c r="H21" s="33" t="s">
         <v>59</v>
       </c>
@@ -5901,15 +5929,21 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="40"/>
+        <v>71</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="45"/>
       <c r="H22" s="33" t="s">
         <v>59</v>
       </c>
@@ -5934,28 +5968,25 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="38">
-        <f>SUM(D23:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="38">
-        <f>SUM(F23:F25)</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="41"/>
+      <c r="B23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="45"/>
       <c r="H23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="6"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -5966,22 +5997,37 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="21" t="s">
-        <v>71</v>
+      <c r="A24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="43">
+        <f>SUM(D24:D26)</f>
+        <v>0</v>
+      </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="43">
+        <f>SUM(F24:F26)</f>
+        <v>0</v>
+      </c>
       <c r="H24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -5992,22 +6038,29 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="22" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I25" s="6"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -6018,17 +6071,29 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -6039,15 +6104,42 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2</v>
+      </c>
+      <c r="E27" s="43">
+        <f>SUM(D27:D29)</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G27" s="43">
+        <f>SUM(F27:F29)</f>
+        <v>6.25</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -6062,13 +6154,24 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6083,12 +6186,24 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -6103,6 +6218,7 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -6122,7 +6238,8 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -6143,8 +6260,7 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -6165,8 +6281,6 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -6187,8 +6301,6 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -6208,8 +6320,110 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
+    <row r="35" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="E14:E23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6220,22 +6434,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -6259,7 +6457,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6280,20 +6478,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6352,40 +6550,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6397,18 +6595,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6423,35 +6621,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>6.5625</v>
+        <v>26.25</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>5.625</v>
+        <v>22.5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>18.75</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>2.8125</v>
+        <v>11.25</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>1.875</v>
+        <v>7.5</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>3.75</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6459,11 +6657,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>26.25</v>
+        <v>105</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>3.28125</v>
+        <v>13.125</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6479,47 +6677,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>25.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>-0.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>60</v>
+        <v>115.5</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>7.5</v>
+        <v>14.4375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6557,18 +6755,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6583,7 +6781,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0.9375</v>
+        <v>3.75</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6591,39 +6789,39 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>0</v>
+        <v>3.8125</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6639,41 +6837,40 @@
       </c>
       <c r="B10" s="18">
         <f>Diogo!B9</f>
-        <v>0.9375</v>
+        <v>2.1875</v>
       </c>
       <c r="C10" s="13">
         <f>Diogo!C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E10" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I10" s="13">
-        <f>Diogo!I9</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>2.09375</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -6689,40 +6886,40 @@
       </c>
       <c r="B11" s="19">
         <f>Ivo!B9</f>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="C11" s="13">
         <f>Ivo!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -7291,11 +7488,11 @@
   <sheetPr>
     <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
-  <dimension ref="A1:S1048575"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7309,20 +7506,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7381,40 +7578,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7426,18 +7623,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7452,35 +7649,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>6.5625</v>
+        <v>15.3125</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>5.625</v>
+        <v>13.125</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
+        <v>10.9375</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>8.75</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>2.8125</v>
+        <v>6.5625</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>1.875</v>
+        <v>4.375</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>2.1875</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -7488,11 +7685,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>26.25</v>
+        <v>61.25</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>3.28125</v>
+        <v>7.65625</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -7508,47 +7705,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>15.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>10.75</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>60</v>
+        <v>68.75</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>7.5</v>
+        <v>8.59375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7586,18 +7783,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7612,7 +7809,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0.9375</v>
+        <v>2.1875</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
@@ -7620,39 +7817,39 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(F10:F19)</f>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(G10:G19)</f>
+        <v>3</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(H10:H19)</f>
+        <v>4.5</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(I10:I19)</f>
+        <v>1.5</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(J10:J19)</f>
+        <v>1</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.71875</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7662,16 +7859,16 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -7693,25 +7890,25 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="54"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7719,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
         <v>0</v>
@@ -7738,25 +7935,25 @@
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="56"/>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7764,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -7783,25 +7980,25 @@
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -7812,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
@@ -7827,31 +8024,324 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
+        <f t="shared" ref="K13:K19" si="4">SUM(C13:J13)</f>
+        <v>1</v>
       </c>
       <c r="L13" s="13">
-        <f>K13/A$3</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="L13:L19" si="5">K13/A$3</f>
+        <v>0.125</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54" t="s">
+        <v>67</v>
+      </c>
       <c r="B14" s="54"/>
-    </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28125</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28125</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="7"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7866,29 +8356,40 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A12:B12"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10:O12 C10:L96">
+  <conditionalFormatting sqref="N10:O19 N21:O22 L20:M20 C21:L102 A20:J20 C10:L19">
     <cfRule type="expression" dxfId="29" priority="2">
-      <formula>LEN(TRIM(C10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
+      <formula>LEN(TRIM(A10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:L102 A20:J20 C10:L19">
     <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
+  <conditionalFormatting sqref="C21:L102 A20:J20 C10:L19">
     <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12 A15:B96 A13">
+  <conditionalFormatting sqref="A10:B10 A21:B102">
     <cfRule type="expression" dxfId="26" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O12 C13 A10:B12 A15:B96 A13">
+  <conditionalFormatting sqref="A10:B10 A21:B102 N10:O19 N21:O22 L20:M20">
     <cfRule type="notContainsText" dxfId="25" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7906,13 +8407,13 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375"/>
-    <col min="2" max="2" width="11"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="10" width="12.7109375"/>
     <col min="11" max="11" width="8.28515625"/>
     <col min="12" max="12" width="8"/>
@@ -7920,20 +8421,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7992,40 +8493,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8037,18 +8538,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8197,18 +8698,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8226,11 +8727,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
+        <f>SUM(C10:C32)</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D9:L9" si="3">SUM(D10:D32)</f>
         <v>0</v>
       </c>
       <c r="E9" s="16">
@@ -8273,11 +8774,11 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8318,11 +8819,11 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="60"/>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="56"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8363,11 +8864,11 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="60"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8409,10 +8910,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="56"/>
+      <c r="A13" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="62"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -8446,11 +8947,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="58"/>
       <c r="C14" s="13">
         <v>0</v>
       </c>
@@ -8476,25 +8977,132 @@
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <f>SUM(C14:J14)</f>
+        <f t="shared" ref="K14:K17" si="4">SUM(C14:J14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f>K14/A$3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <f t="shared" ref="L14:L17" si="5">K14/A$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="23">
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -8510,28 +9118,36 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96 K10:L10">
+  <conditionalFormatting sqref="C18:L98 K10:L10 A14:A17">
     <cfRule type="expression" dxfId="24" priority="17">
-      <formula>LEN(TRIM(C10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L10">
+      <formula>LEN(TRIM(A10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L98 K10:L10">
     <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L10">
+  <conditionalFormatting sqref="C18:L98 K10:L10">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
+  <conditionalFormatting sqref="A18:B98">
     <cfRule type="expression" dxfId="21" priority="20">
-      <formula>LEN(TRIM(A15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
+      <formula>LEN(TRIM(A18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B98 A14:A17">
     <cfRule type="notContainsText" dxfId="20" priority="21" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J10">
@@ -8557,27 +9173,27 @@
   <conditionalFormatting sqref="A10:B10">
     <cfRule type="notContainsText" dxfId="15" priority="7" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L14">
+  <conditionalFormatting sqref="C11:L17">
     <cfRule type="expression" dxfId="14" priority="1">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L14">
+  <conditionalFormatting sqref="C11:L17">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L14">
+  <conditionalFormatting sqref="C11:L17">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B13 A14">
+  <conditionalFormatting sqref="A11:B13">
     <cfRule type="expression" dxfId="11" priority="4">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14 A11:B13 A14">
+  <conditionalFormatting sqref="A11:B13">
     <cfRule type="notContainsText" dxfId="10" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8594,14 +9210,14 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375"/>
-    <col min="2" max="2" width="11"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="10" width="12.7109375"/>
     <col min="11" max="11" width="8.28515625"/>
     <col min="12" max="12" width="8"/>
@@ -8609,20 +9225,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8681,40 +9297,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8726,18 +9342,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8752,35 +9368,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>10.9375</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.8125</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -8788,11 +9404,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.46875</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8808,47 +9424,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>5.84375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8886,18 +9502,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8912,7 +9528,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
@@ -8920,39 +9536,39 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8962,16 +9578,16 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -8993,11 +9609,11 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -9007,11 +9623,11 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="56"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -9019,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="13">
         <v>0</v>
@@ -9038,11 +9654,11 @@
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -9052,9 +9668,9 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="13">
@@ -9067,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
@@ -9083,11 +9699,11 @@
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -9098,10 +9714,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="57"/>
+      <c r="A13" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="58"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -9115,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -9128,11 +9744,163 @@
       </c>
       <c r="K13" s="13">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="13">
         <f>K13/A$3</f>
-        <v>0</v>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" ref="K14:K17" si="4">SUM(C14:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L17" si="5">K14/A$3</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9140,11 +9908,7 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
@@ -9160,51 +9924,59 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96">
+  <conditionalFormatting sqref="C18:L96">
     <cfRule type="expression" dxfId="9" priority="19">
-      <formula>LEN(TRIM(C15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96">
+      <formula>LEN(TRIM(C18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L96">
     <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96">
+  <conditionalFormatting sqref="C18:L96">
     <cfRule type="cellIs" dxfId="7" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
+  <conditionalFormatting sqref="A18:B96">
     <cfRule type="expression" dxfId="6" priority="22">
-      <formula>LEN(TRIM(A15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
+      <formula>LEN(TRIM(A18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B96">
     <cfRule type="notContainsText" dxfId="5" priority="23" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12 A13">
+  <conditionalFormatting sqref="A13:A17 A10:B12">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13 A10:B12 A13">
+  <conditionalFormatting sqref="C13:C17 A13:A17 A10:B12">
     <cfRule type="notContainsText" dxfId="0" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -679,18 +679,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,10 +691,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,28 +2744,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.75</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.75</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2877,31 +2877,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,11 +2929,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="210063320"/>
-        <c:axId val="209966328"/>
+        <c:axId val="123760680"/>
+        <c:axId val="123761856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210063320"/>
+        <c:axId val="123760680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3014,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209966328"/>
+        <c:crossAx val="123761856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3022,7 +3022,509 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209966328"/>
+        <c:axId val="123761856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123760680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="123761464"/>
+        <c:axId val="171345992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="123761464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171345992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171345992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3607,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210063320"/>
+        <c:crossAx val="123761464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3145,7 +3647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3163,7 +3665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
+              <c:f>Izaquiel!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3207,7 +3709,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3243,40 +3745,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.3125</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.125</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.9375</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.75</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5625</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.375</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1875</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3287,7 +3789,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3296,7 +3798,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
+              <c:f>Izaquiel!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3340,7 +3842,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3376,43 +3878,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.25</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.75</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.75</c:v>
+                  <c:v>11.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.75</c:v>
+                  <c:v>8.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.25</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.80000000000000071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3922,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3440,11 +3942,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="209499928"/>
-        <c:axId val="213664488"/>
+        <c:axId val="171345208"/>
+        <c:axId val="171348736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209499928"/>
+        <c:axId val="171345208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,6 +3988,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3517,7 +4020,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213664488"/>
+        <c:crossAx val="171348736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3525,7 +4028,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213664488"/>
+        <c:axId val="171348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,6 +4079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3607,7 +4111,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209499928"/>
+        <c:crossAx val="171345208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,6 +4124,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3646,7 +4151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3664,7 +4169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
+              <c:f>Ivo!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3708,7 +4213,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Ivo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3744,40 +4249,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:f>Ivo!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3788,7 +4293,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3797,7 +4302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
+              <c:f>Ivo!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3841,7 +4346,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Ivo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3877,43 +4382,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:f>Ivo!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,7 +4426,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3941,11 +4446,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="155837096"/>
-        <c:axId val="155837488"/>
+        <c:axId val="171349912"/>
+        <c:axId val="171344816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155837096"/>
+        <c:axId val="171349912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,6 +4492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4018,7 +4524,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155837488"/>
+        <c:crossAx val="171344816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4026,7 +4532,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155837488"/>
+        <c:axId val="171344816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,6 +4583,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4108,7 +4615,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155837096"/>
+        <c:crossAx val="171349912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4121,507 +4628,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.9375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="155838272"/>
-        <c:axId val="155838664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="155838272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="155838664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="155838664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="155838272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5090,8 +5097,8 @@
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5108,16 +5115,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5142,27 +5149,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="42">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5186,9 +5193,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5201,8 +5208,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5224,7 +5231,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -5236,14 +5243,14 @@
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <f>SUM(D4:D6)</f>
         <v>2.5</v>
       </c>
       <c r="F4" s="25">
         <v>1.5</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <f>SUM(F4:F6)</f>
         <v>3.5</v>
       </c>
@@ -5272,7 +5279,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
@@ -5282,11 +5289,11 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="33" t="s">
         <v>59</v>
       </c>
@@ -5312,7 +5319,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
       </c>
@@ -5322,11 +5329,11 @@
       <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="33" t="s">
         <v>59</v>
       </c>
@@ -5352,22 +5359,28 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="43">
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
         <f>SUM(D7:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="43">
+        <v>10</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1.25</v>
+      </c>
+      <c r="G7" s="39">
         <f>SUM(F7:F11)</f>
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>50</v>
@@ -5392,15 +5405,21 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40"/>
       <c r="H8" s="33" t="s">
         <v>50</v>
       </c>
@@ -5424,15 +5443,21 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+      <c r="G9" s="40"/>
       <c r="H9" s="33" t="s">
         <v>50</v>
       </c>
@@ -5457,15 +5482,21 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="G10" s="40"/>
       <c r="H10" s="33" t="s">
         <v>50</v>
       </c>
@@ -5490,15 +5521,21 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="44"/>
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20">
+        <v>3</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="41"/>
       <c r="H11" s="33" t="s">
         <v>50</v>
       </c>
@@ -5523,7 +5560,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -5535,14 +5572,14 @@
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <f>SUM(D12:D13)</f>
         <v>4</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <f>SUM(F12:F13)</f>
         <v>3.5</v>
       </c>
@@ -5570,7 +5607,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
@@ -5580,11 +5617,11 @@
       <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="20">
         <v>2.5</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="33" t="s">
         <v>59</v>
       </c>
@@ -5609,7 +5646,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -5621,14 +5658,14 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="39">
         <f>SUM(D14:D23)</f>
         <v>17.5</v>
       </c>
       <c r="F14" s="20">
         <v>2.25</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="39">
         <f>SUM(F14:F23)</f>
         <v>16.75</v>
       </c>
@@ -5656,7 +5693,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -5666,11 +5703,11 @@
       <c r="D15" s="20">
         <v>1.5</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="20">
         <v>2</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="33" t="s">
         <v>59</v>
       </c>
@@ -5695,7 +5732,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="22" t="s">
         <v>44</v>
       </c>
@@ -5705,11 +5742,11 @@
       <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="20">
         <v>1.5</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="33" t="s">
         <v>59</v>
       </c>
@@ -5734,7 +5771,7 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="22" t="s">
         <v>66</v>
       </c>
@@ -5744,11 +5781,11 @@
       <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="33" t="s">
         <v>59</v>
       </c>
@@ -5773,7 +5810,7 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="22" t="s">
         <v>67</v>
       </c>
@@ -5783,11 +5820,11 @@
       <c r="D18" s="20">
         <v>1.5</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="20">
         <v>1.5</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="33" t="s">
         <v>59</v>
       </c>
@@ -5812,7 +5849,7 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="22" t="s">
         <v>68</v>
       </c>
@@ -5822,11 +5859,11 @@
       <c r="D19" s="20">
         <v>1.5</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="20">
         <v>1.5</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="33" t="s">
         <v>59</v>
       </c>
@@ -5851,7 +5888,7 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="22" t="s">
         <v>69</v>
       </c>
@@ -5861,11 +5898,11 @@
       <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="20">
         <v>2.25</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="33" t="s">
         <v>59</v>
       </c>
@@ -5890,7 +5927,7 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="22" t="s">
         <v>70</v>
       </c>
@@ -5900,11 +5937,11 @@
       <c r="D21" s="20">
         <v>2</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="20">
         <v>2.25</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="33" t="s">
         <v>59</v>
       </c>
@@ -5929,7 +5966,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
         <v>71</v>
       </c>
@@ -5939,11 +5976,11 @@
       <c r="D22" s="20">
         <v>2</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="20">
         <v>1.5</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="33" t="s">
         <v>59</v>
       </c>
@@ -5968,7 +6005,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="22" t="s">
         <v>72</v>
       </c>
@@ -5978,11 +6015,11 @@
       <c r="D23" s="20">
         <v>2</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20">
         <v>1</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="33" t="s">
         <v>59</v>
       </c>
@@ -6007,22 +6044,28 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="43">
+      <c r="C24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="39">
         <f>SUM(D24:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="43">
+        <v>8</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G24" s="39">
         <f>SUM(F24:F26)</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>50</v>
@@ -6048,15 +6091,21 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20">
+        <v>3</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="20">
+        <v>3</v>
+      </c>
+      <c r="G25" s="40"/>
       <c r="H25" s="33" t="s">
         <v>50</v>
       </c>
@@ -6081,15 +6130,21 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="44"/>
+      <c r="C26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <v>3</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="41"/>
       <c r="H26" s="33" t="s">
         <v>50</v>
       </c>
@@ -6114,7 +6169,7 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -6126,14 +6181,14 @@
       <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="39">
         <f>SUM(D27:D29)</f>
         <v>6</v>
       </c>
       <c r="F27" s="20">
         <v>2.25</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="39">
         <f>SUM(F27:F29)</f>
         <v>6.25</v>
       </c>
@@ -6154,7 +6209,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
@@ -6164,11 +6219,11 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="20">
         <v>2.5</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="33" t="s">
         <v>59</v>
       </c>
@@ -6186,7 +6241,7 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="22" t="s">
         <v>63</v>
       </c>
@@ -6196,11 +6251,11 @@
       <c r="D29" s="20">
         <v>2</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="20">
         <v>1.5</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="33" t="s">
         <v>59</v>
       </c>
@@ -6408,6 +6463,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="G27:G29"/>
@@ -6424,16 +6489,6 @@
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="E14:E23"/>
     <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -6621,35 +6676,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>26.25</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>30</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>18</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6657,11 +6712,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>13.125</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6677,47 +6732,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>43.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>35.5</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>28.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>20.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>15.5</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>115.5</v>
+        <v>247.5</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>14.4375</v>
+        <v>30.9375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6781,7 +6836,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6793,7 +6848,7 @@
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
@@ -6817,11 +6872,11 @@
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>3.8125</v>
+        <v>4.0625</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6935,7 +6990,7 @@
       </c>
       <c r="B12" s="18">
         <f>Izaquiel!B9</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="C12" s="13">
         <f>Izaquiel!C9</f>
@@ -6946,7 +7001,7 @@
       </c>
       <c r="E12" s="13">
         <f>Izaquiel!E9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -6965,11 +7020,11 @@
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -7491,7 +7546,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
@@ -8340,6 +8395,18 @@
     <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
@@ -8356,18 +8423,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:O19 N21:O22 L20:M20 C21:L102 A20:J20 C10:L19">
     <cfRule type="expression" dxfId="29" priority="2">
@@ -8405,9 +8460,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8564,35 +8619,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -8600,11 +8655,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>7.875</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8620,47 +8675,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.05</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>75.499999999999986</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>9.4374999999999982</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8724,7 +8779,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(C10:C32)</f>
@@ -8732,39 +8787,39 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ref="D9:L9" si="3">SUM(D10:D32)</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8783,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -8805,11 +8860,11 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -8828,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -8850,11 +8905,11 @@
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -8876,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -8895,11 +8950,11 @@
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -8924,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
@@ -8940,11 +8995,11 @@
       </c>
       <c r="K13" s="13">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L13" s="13">
         <f>K13/A$3</f>
-        <v>0</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8965,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -8978,11 +9033,11 @@
       </c>
       <c r="K14" s="13">
         <f t="shared" ref="K14:K17" si="4">SUM(C14:J14)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" ref="L14:L17" si="5">K14/A$3</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -9016,11 +9071,11 @@
       </c>
       <c r="K15" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -9047,18 +9102,18 @@
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="13">
         <v>0</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -9088,21 +9143,29 @@
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -9118,14 +9181,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L98 K10:L10 A14:A17">
     <cfRule type="expression" dxfId="24" priority="17">
@@ -9909,6 +9964,14 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
@@ -9924,14 +9987,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L96">
     <cfRule type="expression" dxfId="9" priority="19">

--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Mudanças de métodos das telas de agendamento para classse funcionário</t>
-  </si>
-  <si>
-    <t>Não feito</t>
   </si>
   <si>
     <t>Implementação gráfica da tela prontuário</t>
@@ -679,6 +676,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,22 +700,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,25 +2880,25 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.5</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.5</c:v>
+                  <c:v>32.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>28.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.5</c:v>
+                  <c:v>21.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.5</c:v>
+                  <c:v>7.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.5</c:v>
+                  <c:v>0.30000000000000071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,11 +2926,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="123760680"/>
-        <c:axId val="123761856"/>
+        <c:axId val="154034384"/>
+        <c:axId val="154034776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123760680"/>
+        <c:axId val="154034384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3011,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123761856"/>
+        <c:crossAx val="154034776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3022,509 +3019,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123761856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="123760680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.9375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-26/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-27/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-28/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-29/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-30/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-31/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-01/11/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="123761464"/>
-        <c:axId val="171345992"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="123761464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="171345992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="171345992"/>
+        <c:axId val="154034776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,7 +3102,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123761464"/>
+        <c:crossAx val="154034384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3647,7 +3142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3665,7 +3160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
+              <c:f>Diogo!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3709,7 +3204,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Diogo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3745,40 +3240,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:f>Diogo!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.75</c:v>
+                  <c:v>15.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>13.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.25</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.75</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.25</c:v>
+                  <c:v>2.1875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3789,7 +3284,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3798,7 +3293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
+              <c:f>Diogo!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3842,7 +3337,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:f>Diogo!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3878,43 +3373,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-25/10/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:f>Diogo!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.75</c:v>
+                  <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.05</c:v>
+                  <c:v>10.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5500000000000007</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80000000000000071</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,7 +3417,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3942,11 +3437,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="171345208"/>
-        <c:axId val="171348736"/>
+        <c:axId val="154035560"/>
+        <c:axId val="154035952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171345208"/>
+        <c:axId val="154035560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4020,7 +3514,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171348736"/>
+        <c:crossAx val="154035952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4028,7 +3522,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171348736"/>
+        <c:axId val="154035952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,7 +3573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4111,7 +3604,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171345208"/>
+        <c:crossAx val="154035560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4124,7 +3617,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4151,7 +3643,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -4169,7 +3661,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
+              <c:f>Izaquiel!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4213,7 +3705,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4249,40 +3741,40 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>12.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.9375</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.375</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8125</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6875</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.125</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5625</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4293,7 +3785,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4302,7 +3794,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
+              <c:f>Izaquiel!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4346,7 +3838,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4382,43 +3874,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/11/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>12.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.25</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.75</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25</c:v>
+                  <c:v>11.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.75</c:v>
+                  <c:v>8.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.75</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.75</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.25</c:v>
+                  <c:v>0.80000000000000071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,7 +3918,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4446,11 +3938,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="171349912"/>
-        <c:axId val="171344816"/>
+        <c:axId val="154036736"/>
+        <c:axId val="154037128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171349912"/>
+        <c:axId val="154036736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,7 +3984,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4524,7 +4015,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171344816"/>
+        <c:crossAx val="154037128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4532,7 +4023,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171344816"/>
+        <c:axId val="154037128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4615,7 +4105,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171349912"/>
+        <c:crossAx val="154036736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4628,7 +4118,507 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+26/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+27/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+28/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+29/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+30/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+31/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+01/11/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="154037912"/>
+        <c:axId val="154038304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154037912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154038304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154038304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154037912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5097,8 +5087,8 @@
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5115,16 +5105,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5149,27 +5139,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="36">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5193,9 +5183,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5208,8 +5198,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5231,7 +5221,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -5243,19 +5233,19 @@
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="43">
         <f>SUM(D4:D6)</f>
         <v>2.5</v>
       </c>
       <c r="F4" s="25">
         <v>1.5</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="43">
         <f>SUM(F4:F6)</f>
         <v>3.5</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="31"/>
@@ -5279,7 +5269,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
@@ -5289,13 +5279,13 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="3"/>
@@ -5319,7 +5309,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
       </c>
@@ -5329,13 +5319,13 @@
       <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="3"/>
@@ -5359,11 +5349,11 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -5371,19 +5361,19 @@
       <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="43">
         <f>SUM(D7:D11)</f>
         <v>10</v>
       </c>
       <c r="F7" s="28">
         <v>1.25</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="43">
         <f>SUM(F7:F11)</f>
         <v>9.4499999999999993</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5405,9 +5395,9 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>24</v>
@@ -5415,13 +5405,13 @@
       <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5443,9 +5433,9 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>24</v>
@@ -5453,13 +5443,13 @@
       <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="20">
         <v>2</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
@@ -5482,9 +5472,9 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>24</v>
@@ -5492,13 +5482,13 @@
       <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="20">
         <v>1.7</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
@@ -5521,9 +5511,9 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>24</v>
@@ -5531,13 +5521,13 @@
       <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="20">
         <v>2.5</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
@@ -5560,7 +5550,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -5572,19 +5562,19 @@
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="43">
         <f>SUM(D12:D13)</f>
         <v>4</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="43">
         <f>SUM(F12:F13)</f>
         <v>3.5</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
@@ -5607,7 +5597,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
@@ -5617,13 +5607,13 @@
       <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="20">
         <v>2.5</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5646,11 +5636,11 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>22</v>
@@ -5658,19 +5648,19 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="43">
         <f>SUM(D14:D23)</f>
         <v>17.5</v>
       </c>
       <c r="F14" s="20">
         <v>2.25</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="43">
         <f>SUM(F14:F23)</f>
         <v>16.75</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="6"/>
       <c r="K14" s="4"/>
@@ -5693,9 +5683,9 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>22</v>
@@ -5703,13 +5693,13 @@
       <c r="D15" s="20">
         <v>1.5</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="20">
         <v>2</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="6"/>
       <c r="K15" s="4"/>
@@ -5732,7 +5722,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="22" t="s">
         <v>44</v>
       </c>
@@ -5742,13 +5732,13 @@
       <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="20">
         <v>1.5</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="6"/>
       <c r="K16" s="4"/>
@@ -5771,9 +5761,9 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
@@ -5781,13 +5771,13 @@
       <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="6"/>
       <c r="K17" s="4"/>
@@ -5810,9 +5800,9 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>22</v>
@@ -5820,13 +5810,13 @@
       <c r="D18" s="20">
         <v>1.5</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="20">
         <v>1.5</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="6"/>
       <c r="K18" s="4"/>
@@ -5849,9 +5839,9 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>22</v>
@@ -5859,13 +5849,13 @@
       <c r="D19" s="20">
         <v>1.5</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="20">
         <v>1.5</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="6"/>
       <c r="K19" s="4"/>
@@ -5888,9 +5878,9 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>22</v>
@@ -5898,13 +5888,13 @@
       <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="20">
         <v>2.25</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="6"/>
       <c r="K20" s="4"/>
@@ -5927,9 +5917,9 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>22</v>
@@ -5937,13 +5927,13 @@
       <c r="D21" s="20">
         <v>2</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="20">
         <v>2.25</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="6"/>
       <c r="K21" s="4"/>
@@ -5966,9 +5956,9 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>22</v>
@@ -5976,13 +5966,13 @@
       <c r="D22" s="20">
         <v>2</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="20">
         <v>1.5</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="6"/>
       <c r="K22" s="4"/>
@@ -6005,9 +5995,9 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>22</v>
@@ -6015,13 +6005,13 @@
       <c r="D23" s="20">
         <v>2</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="20">
         <v>1</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="6"/>
       <c r="K23" s="4"/>
@@ -6044,11 +6034,11 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>24</v>
@@ -6056,19 +6046,19 @@
       <c r="D24" s="20">
         <v>2</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="43">
         <f>SUM(D24:D26)</f>
         <v>8</v>
       </c>
       <c r="F24" s="20">
         <v>2.25</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="43">
         <f>SUM(F24:F26)</f>
         <v>7.75</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I24" s="6"/>
       <c r="K24" s="4"/>
@@ -6091,9 +6081,9 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>24</v>
@@ -6101,13 +6091,13 @@
       <c r="D25" s="20">
         <v>3</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="20">
         <v>3</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I25" s="6"/>
       <c r="K25" s="4"/>
@@ -6130,9 +6120,9 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>24</v>
@@ -6140,13 +6130,13 @@
       <c r="D26" s="20">
         <v>3</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="20">
         <v>2.5</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="33" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I26" s="6"/>
       <c r="K26" s="4"/>
@@ -6169,11 +6159,11 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -6181,19 +6171,19 @@
       <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="43">
         <f>SUM(D27:D29)</f>
         <v>6</v>
       </c>
       <c r="F27" s="20">
         <v>2.25</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="43">
         <f>SUM(F27:F29)</f>
         <v>6.25</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -6209,9 +6199,9 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>23</v>
@@ -6219,13 +6209,13 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="20">
         <v>2.5</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -6241,9 +6231,9 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>23</v>
@@ -6251,13 +6241,13 @@
       <c r="D29" s="20">
         <v>2</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="20">
         <v>1.5</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -6463,16 +6453,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="G27:G29"/>
@@ -6489,6 +6469,16 @@
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="E14:E23"/>
     <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -6510,9 +6500,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6740,39 +6730,39 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>40.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>35.5</v>
+        <v>32.25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>28.05</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>28.5</v>
+        <v>21.05</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>13.3</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>15.5</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>247.5</v>
+        <v>191.00000000000006</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>30.9375</v>
+        <v>23.875000000000007</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6844,7 +6834,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
@@ -6852,31 +6842,31 @@
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>7.75</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>32.5</v>
+        <v>47.7</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>4.0625</v>
+        <v>5.9625000000000004</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6997,34 +6987,34 @@
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E12" s="13">
         <f>Izaquiel!E9</f>
         <v>2</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>2</v>
+        <v>17.2</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0.25</v>
+        <v>2.15</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -7916,7 +7906,7 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="13">
@@ -7961,7 +7951,7 @@
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="13">
@@ -8051,7 +8041,7 @@
     </row>
     <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="13">
@@ -8096,7 +8086,7 @@
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="13">
@@ -8141,7 +8131,7 @@
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="13">
@@ -8186,7 +8176,7 @@
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="13">
@@ -8231,7 +8221,7 @@
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="13">
@@ -8276,7 +8266,7 @@
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="13">
@@ -8321,7 +8311,7 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="13">
@@ -8395,18 +8385,6 @@
     <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
@@ -8423,6 +8401,18 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:O19 N21:O22 L20:M20 C21:L102 A20:J20 C10:L19">
     <cfRule type="expression" dxfId="29" priority="2">
@@ -8460,8 +8450,8 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -8831,7 +8821,7 @@
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="13">
@@ -8876,7 +8866,7 @@
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="13">
@@ -8921,7 +8911,7 @@
     </row>
     <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="13">
@@ -8966,7 +8956,7 @@
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="62"/>
       <c r="C13" s="13">
@@ -9004,7 +8994,7 @@
     </row>
     <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="13">
@@ -9042,7 +9032,7 @@
     </row>
     <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="13">
@@ -9080,7 +9070,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="13">
@@ -9118,7 +9108,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="13">
@@ -9158,14 +9148,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -9181,6 +9163,14 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L98 K10:L10 A14:A17">
     <cfRule type="expression" dxfId="24" priority="17">
@@ -9635,7 +9625,7 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="13">
@@ -9680,7 +9670,7 @@
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="13">
@@ -9725,7 +9715,7 @@
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="13">
@@ -9884,7 +9874,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="13">
@@ -9922,7 +9912,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="13">
@@ -9964,14 +9954,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
@@ -9987,6 +9969,14 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L96">
     <cfRule type="expression" dxfId="9" priority="19">

--- a/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
+++ b/Sprint 7/Sprint_7 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -676,18 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,10 +688,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,11 +2926,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="154034384"/>
-        <c:axId val="154034776"/>
+        <c:axId val="161292104"/>
+        <c:axId val="125071896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154034384"/>
+        <c:axId val="161292104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154034776"/>
+        <c:crossAx val="125071896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3019,7 +3019,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154034776"/>
+        <c:axId val="125071896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3102,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154034384"/>
+        <c:crossAx val="161292104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3437,11 +3437,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="154035560"/>
-        <c:axId val="154035952"/>
+        <c:axId val="125068760"/>
+        <c:axId val="125069544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154035560"/>
+        <c:axId val="125068760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,6 +3483,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3514,7 +3515,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154035952"/>
+        <c:crossAx val="125069544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +3523,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154035952"/>
+        <c:axId val="125069544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3573,6 +3574,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3604,7 +3606,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154035560"/>
+        <c:crossAx val="125068760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3617,6 +3619,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3938,11 +3941,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="154036736"/>
-        <c:axId val="154037128"/>
+        <c:axId val="125071112"/>
+        <c:axId val="125070328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154036736"/>
+        <c:axId val="125071112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,6 +3987,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4015,7 +4019,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154037128"/>
+        <c:crossAx val="125070328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4023,7 +4027,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154037128"/>
+        <c:axId val="125070328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,6 +4078,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4105,7 +4110,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154036736"/>
+        <c:crossAx val="125071112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4118,6 +4123,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4439,11 +4445,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="154037912"/>
-        <c:axId val="154038304"/>
+        <c:axId val="162853008"/>
+        <c:axId val="162849480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154037912"/>
+        <c:axId val="162853008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,6 +4491,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4516,7 +4523,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154038304"/>
+        <c:crossAx val="162849480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4524,7 +4531,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154038304"/>
+        <c:axId val="162849480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,6 +4582,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4606,7 +4614,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154037912"/>
+        <c:crossAx val="162853008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4619,6 +4627,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5087,8 +5096,8 @@
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H29"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5105,16 +5114,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5139,27 +5148,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="42">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5183,9 +5192,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5198,8 +5207,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5221,7 +5230,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -5233,14 +5242,14 @@
       <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <f>SUM(D4:D6)</f>
         <v>2.5</v>
       </c>
       <c r="F4" s="25">
         <v>1.5</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <f>SUM(F4:F6)</f>
         <v>3.5</v>
       </c>
@@ -5269,7 +5278,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
@@ -5279,11 +5288,11 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="33" t="s">
         <v>58</v>
       </c>
@@ -5309,7 +5318,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
       </c>
@@ -5319,11 +5328,11 @@
       <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="33" t="s">
         <v>58</v>
       </c>
@@ -5349,7 +5358,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5361,14 +5370,14 @@
       <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <f>SUM(D7:D11)</f>
         <v>10</v>
       </c>
       <c r="F7" s="28">
         <v>1.25</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <f>SUM(F7:F11)</f>
         <v>9.4499999999999993</v>
       </c>
@@ -5395,7 +5404,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="22" t="s">
         <v>51</v>
       </c>
@@ -5405,11 +5414,11 @@
       <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="33" t="s">
         <v>58</v>
       </c>
@@ -5433,7 +5442,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="23" t="s">
         <v>52</v>
       </c>
@@ -5443,11 +5452,11 @@
       <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="20">
         <v>2</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="33" t="s">
         <v>58</v>
       </c>
@@ -5472,7 +5481,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="24" t="s">
         <v>63</v>
       </c>
@@ -5482,11 +5491,11 @@
       <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="20">
         <v>1.7</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="33" t="s">
         <v>58</v>
       </c>
@@ -5511,7 +5520,7 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="23" t="s">
         <v>53</v>
       </c>
@@ -5521,11 +5530,11 @@
       <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="20">
         <v>2.5</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="33" t="s">
         <v>58</v>
       </c>
@@ -5550,7 +5559,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -5562,14 +5571,14 @@
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <f>SUM(D12:D13)</f>
         <v>4</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <f>SUM(F12:F13)</f>
         <v>3.5</v>
       </c>
@@ -5597,7 +5606,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
@@ -5607,11 +5616,11 @@
       <c r="D13" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="20">
         <v>2.5</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="33" t="s">
         <v>58</v>
       </c>
@@ -5636,7 +5645,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -5648,14 +5657,14 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="39">
         <f>SUM(D14:D23)</f>
         <v>17.5</v>
       </c>
       <c r="F14" s="20">
         <v>2.25</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="39">
         <f>SUM(F14:F23)</f>
         <v>16.75</v>
       </c>
@@ -5683,7 +5692,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="24" t="s">
         <v>54</v>
       </c>
@@ -5693,11 +5702,11 @@
       <c r="D15" s="20">
         <v>1.5</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="20">
         <v>2</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="33" t="s">
         <v>58</v>
       </c>
@@ -5722,7 +5731,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="22" t="s">
         <v>44</v>
       </c>
@@ -5732,11 +5741,11 @@
       <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="20">
         <v>1.5</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="33" t="s">
         <v>58</v>
       </c>
@@ -5761,7 +5770,7 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="22" t="s">
         <v>65</v>
       </c>
@@ -5771,11 +5780,11 @@
       <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="33" t="s">
         <v>58</v>
       </c>
@@ -5800,7 +5809,7 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="22" t="s">
         <v>66</v>
       </c>
@@ -5810,11 +5819,11 @@
       <c r="D18" s="20">
         <v>1.5</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="20">
         <v>1.5</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="33" t="s">
         <v>58</v>
       </c>
@@ -5839,7 +5848,7 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="22" t="s">
         <v>67</v>
       </c>
@@ -5849,11 +5858,11 @@
       <c r="D19" s="20">
         <v>1.5</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="20">
         <v>1.5</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="33" t="s">
         <v>58</v>
       </c>
@@ -5878,7 +5887,7 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
@@ -5888,11 +5897,11 @@
       <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="20">
         <v>2.25</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="33" t="s">
         <v>58</v>
       </c>
@@ -5917,7 +5926,7 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
@@ -5927,11 +5936,11 @@
       <c r="D21" s="20">
         <v>2</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="20">
         <v>2.25</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="33" t="s">
         <v>58</v>
       </c>
@@ -5956,7 +5965,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
         <v>70</v>
       </c>
@@ -5966,11 +5975,11 @@
       <c r="D22" s="20">
         <v>2</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="20">
         <v>1.5</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="33" t="s">
         <v>58</v>
       </c>
@@ -5995,7 +6004,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="22" t="s">
         <v>71</v>
       </c>
@@ -6005,11 +6014,11 @@
       <c r="D23" s="20">
         <v>2</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="20">
         <v>1</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="33" t="s">
         <v>58</v>
       </c>
@@ -6034,7 +6043,7 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -6046,14 +6055,14 @@
       <c r="D24" s="20">
         <v>2</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="39">
         <f>SUM(D24:D26)</f>
         <v>8</v>
       </c>
       <c r="F24" s="20">
         <v>2.25</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="39">
         <f>SUM(F24:F26)</f>
         <v>7.75</v>
       </c>
@@ -6081,7 +6090,7 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="22" t="s">
         <v>56</v>
       </c>
@@ -6091,11 +6100,11 @@
       <c r="D25" s="20">
         <v>3</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="20">
         <v>3</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="33" t="s">
         <v>58</v>
       </c>
@@ -6120,7 +6129,7 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="22" t="s">
         <v>57</v>
       </c>
@@ -6130,11 +6139,11 @@
       <c r="D26" s="20">
         <v>3</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="20">
         <v>2.5</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="33" t="s">
         <v>58</v>
       </c>
@@ -6159,7 +6168,7 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -6171,14 +6180,14 @@
       <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="39">
         <f>SUM(D27:D29)</f>
         <v>6</v>
       </c>
       <c r="F27" s="20">
         <v>2.25</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="39">
         <f>SUM(F27:F29)</f>
         <v>6.25</v>
       </c>
@@ -6199,7 +6208,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="21" t="s">
         <v>61</v>
       </c>
@@ -6209,11 +6218,11 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="20">
         <v>2.5</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="33" t="s">
         <v>58</v>
       </c>
@@ -6231,7 +6240,7 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="22" t="s">
         <v>62</v>
       </c>
@@ -6241,11 +6250,11 @@
       <c r="D29" s="20">
         <v>2</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="20">
         <v>1.5</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="33" t="s">
         <v>58</v>
       </c>
@@ -6453,6 +6462,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="G27:G29"/>
@@ -6469,16 +6488,6 @@
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="E14:E23"/>
     <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -6500,7 +6509,7 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
@@ -8385,6 +8394,18 @@
     <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
@@ -8401,18 +8422,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:O19 N21:O22 L20:M20 C21:L102 A20:J20 C10:L19">
     <cfRule type="expression" dxfId="29" priority="2">
@@ -8452,7 +8461,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9148,6 +9157,14 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -9163,14 +9180,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L98 K10:L10 A14:A17">
     <cfRule type="expression" dxfId="24" priority="17">
@@ -9256,7 +9265,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9954,6 +9963,14 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
@@ -9969,14 +9986,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:L96">
     <cfRule type="expression" dxfId="9" priority="19">
